--- a/biology/Médecine/Barney_Clarke/Barney_Clarke.xlsx
+++ b/biology/Médecine/Barney_Clarke/Barney_Clarke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barney Clarke, un dentiste américain, fut un patient volontaire pour recevoir un cœur artificiel (Jarvik 7) le 1er décembre 1982 qui lui permit de survivre 112 jours. Son histoire fut suivie jour après jour par les médias mondiaux. Le record actuel est de 620 jours pour une telle intervention.
 </t>
@@ -511,7 +523,9 @@
           <t>Autres patients célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuel Vitria
 Marius Renard
